--- a/miserableData.xlsx
+++ b/miserableData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvin\Documents\hateCrimeProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A935E392-0740-4293-B9CB-D5722364CB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702C01A4-F791-47EF-9603-6F66212462DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88E5D7C8-F0A7-40A7-A4FE-12C513C94A33}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="LGBTQ Equality" sheetId="22" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Anti LGBTQ Bills'!$A$1:$C$73</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Anti LGBTQ Bills'!$A$1:$C$98</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Bills Pre-Empting Protection'!$A$1:$C$9</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'LGBTQ Equality'!$A$1:$C$27</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Religious Exemption Bills'!$A$1:$C$34</definedName>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="324">
   <si>
     <t>Column1</t>
   </si>
@@ -205,14 +205,6 @@
     <t>LA</t>
   </si>
   <si>
-    <t>HB 575_x000D_
-SB 104</t>
-  </si>
-  <si>
-    <t>Referred to committee 4/12/21_x000D_
-Read for the second time and referred to commitee 4/12/21</t>
-  </si>
-  <si>
     <t>MO</t>
   </si>
   <si>
@@ -259,13 +251,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>SB 583_x000D_
-SB 676</t>
-  </si>
-  <si>
-    <t>Read for the second time and referred to committee 2/2/21Read for the second time and referred to committee 2/2/21</t>
   </si>
   <si>
     <t>SC</t>
@@ -292,16 +277,6 @@
     <t>TX</t>
   </si>
   <si>
-    <t>HB 68_x000D_
-HB1339_x000D_
-SB 16446</t>
-  </si>
-  <si>
-    <t>Read for the first time and referred to committee 2/25/21Placed on general state calendar 5/12/21_x000D_
-Read for the third time and passed in Senate 4/28/21;_x000D_
-Referred to committee in House 5/3/21</t>
-  </si>
-  <si>
     <t>UT</t>
   </si>
   <si>
@@ -320,33 +295,12 @@
     <t>Referred to committee 2/10/21</t>
   </si>
   <si>
-    <t>HB 1882_x000D_
-HB 1905</t>
-  </si>
-  <si>
-    <t>Died 10/15/21Readfor the second time and referred to committee 4/12/21</t>
-  </si>
-  <si>
-    <t>HB 1223_x000D_
-SB 1367_x000D_
-HB 1182SB 1224</t>
-  </si>
-  <si>
-    <t>Signed by Governor 5/14/21Substituted for companion House bill 4/21/21Signed by Governor 5/17/21Companion House bill substitute 4/29/21</t>
-  </si>
-  <si>
     <t>HB 391</t>
   </si>
   <si>
     <t>Signed by Governor</t>
   </si>
   <si>
-    <t>SJR 16SB 354SB 450</t>
-  </si>
-  <si>
-    <t>Died 10/15/21Signed by Governor 3/29/21Signed by Governor 4/29/21</t>
-  </si>
-  <si>
     <t>SB 1637</t>
   </si>
   <si>
@@ -356,28 +310,6 @@
     <t>CT</t>
   </si>
   <si>
-    <t>SB 324HB 6128</t>
-  </si>
-  <si>
-    <t>Referred to committee 1/25/21Referred to committee 1/29/21</t>
-  </si>
-  <si>
-    <t>HB 935_x000D_
-HB 1475_x000D_
-SB 2012S 1028</t>
-  </si>
-  <si>
-    <t>Died in subcommittee 4/30/21_x000D_
-Died in committee 4/30/21_x000D_
-Died in committee 4/30/21Approved by Governor 6/1/22</t>
-  </si>
-  <si>
-    <t>HB 276HB 372SB 266</t>
-  </si>
-  <si>
-    <t>Read for the second time 2/8/21Read for the second time 2/11/21Read for the second time 3/5/21</t>
-  </si>
-  <si>
     <t>HI</t>
   </si>
   <si>
@@ -396,18 +328,6 @@
     <t>Postponed until 2022</t>
   </si>
   <si>
-    <t>SB 106HB 471</t>
-  </si>
-  <si>
-    <t>Died 4/2/21Died 4/2/21</t>
-  </si>
-  <si>
-    <t>HB 542SB 156</t>
-  </si>
-  <si>
-    <t>Referred to commitee 4/12/21Senate voted to override the Governor's veto 7/20/21; House failed to override the Governor's veto 7/21/21</t>
-  </si>
-  <si>
     <t>ME</t>
   </si>
   <si>
@@ -427,18 +347,6 @@
   </si>
   <si>
     <t>MN</t>
-  </si>
-  <si>
-    <t>HF 350HF 352HF 1657</t>
-  </si>
-  <si>
-    <t>Referred to committee 1/28/21Referred to committee 1/28/21Referred to committee 2/25/21</t>
-  </si>
-  <si>
-    <t>HB 1077HJR 56SB 503SB 9SB 740</t>
-  </si>
-  <si>
-    <t>Referred to committee 2/18/21Referred to committee 2/18/21Read for the second time and referred to committee 3/4/21Read for the second time and referred to committee 6/26/21Prefiled 12/1/21</t>
   </si>
   <si>
     <t>SB 2536</t>
@@ -1036,6 +944,186 @@
   </si>
   <si>
     <t>HB 477</t>
+  </si>
+  <si>
+    <t>SB 104</t>
+  </si>
+  <si>
+    <t>Read for the second time and referred to commitee 4/12/21</t>
+  </si>
+  <si>
+    <t>HB 575</t>
+  </si>
+  <si>
+    <t>Referred to committee 4/12/21</t>
+  </si>
+  <si>
+    <t>SB 583</t>
+  </si>
+  <si>
+    <t>Read for the second time and referred to committee 2/2/21</t>
+  </si>
+  <si>
+    <t>SB 676</t>
+  </si>
+  <si>
+    <t>HB 68</t>
+  </si>
+  <si>
+    <t>Read for the first time and referred to committee 2/25/21Placed on general state calendar 5/12/21</t>
+  </si>
+  <si>
+    <t>Read for the third time and passed in Senate 4/28/21;</t>
+  </si>
+  <si>
+    <t>HB1339</t>
+  </si>
+  <si>
+    <t>Referred to committee in House 5/3/21</t>
+  </si>
+  <si>
+    <t>SB 16446</t>
+  </si>
+  <si>
+    <t>HB 1882</t>
+  </si>
+  <si>
+    <t>Readfor the second time and referred to committee 4/12/21</t>
+  </si>
+  <si>
+    <t>HB 1905</t>
+  </si>
+  <si>
+    <t>HB 1223</t>
+  </si>
+  <si>
+    <t>SB 1367</t>
+  </si>
+  <si>
+    <t>HB 1182</t>
+  </si>
+  <si>
+    <t>Signed by Governor 5/14/21</t>
+  </si>
+  <si>
+    <t>Substituted for companion House bill 4/21/21</t>
+  </si>
+  <si>
+    <t>Companion House bill substitute 4/29/21</t>
+  </si>
+  <si>
+    <t>Signed by Governor 5/17/21</t>
+  </si>
+  <si>
+    <t>SB 1224</t>
+  </si>
+  <si>
+    <t>SJR 16</t>
+  </si>
+  <si>
+    <t>SB 450</t>
+  </si>
+  <si>
+    <t>SB 354</t>
+  </si>
+  <si>
+    <t>Signed by Governor 4/29/21</t>
+  </si>
+  <si>
+    <t>HB 6128</t>
+  </si>
+  <si>
+    <t>SB 324</t>
+  </si>
+  <si>
+    <t>Referred to committee 1/29/21</t>
+  </si>
+  <si>
+    <t>HB 1475</t>
+  </si>
+  <si>
+    <t>Died in committee 4/30/21</t>
+  </si>
+  <si>
+    <t>SB 2012</t>
+  </si>
+  <si>
+    <t>Approved by Governor 6/1/22</t>
+  </si>
+  <si>
+    <t>S 1028</t>
+  </si>
+  <si>
+    <t>HB 276</t>
+  </si>
+  <si>
+    <t>SB 266</t>
+  </si>
+  <si>
+    <t>HB 372</t>
+  </si>
+  <si>
+    <t>Read for the second time 2/8/21</t>
+  </si>
+  <si>
+    <t>Read for the second time 3/5/21</t>
+  </si>
+  <si>
+    <t>Read for the second time 2/11/21</t>
+  </si>
+  <si>
+    <t>SB 106</t>
+  </si>
+  <si>
+    <t>HB 471</t>
+  </si>
+  <si>
+    <t>HB 542</t>
+  </si>
+  <si>
+    <t>Senate voted to override the Governor's veto 7/20/21; House failed to override the Governor's veto 7/21/21</t>
+  </si>
+  <si>
+    <t>Referred to commitee 4/12/21</t>
+  </si>
+  <si>
+    <t>SB 156</t>
+  </si>
+  <si>
+    <t>HF 350</t>
+  </si>
+  <si>
+    <t>HF 1657</t>
+  </si>
+  <si>
+    <t>HF 352</t>
+  </si>
+  <si>
+    <t>Referred to committee 2/25/21</t>
+  </si>
+  <si>
+    <t>HB 1077</t>
+  </si>
+  <si>
+    <t>HJR 56</t>
+  </si>
+  <si>
+    <t>SB 503</t>
+  </si>
+  <si>
+    <t>SB 740</t>
+  </si>
+  <si>
+    <t>SB 9</t>
+  </si>
+  <si>
+    <t>Read for the second time and referred to committee 3/4/21</t>
+  </si>
+  <si>
+    <t>Prefiled 12/1/21</t>
+  </si>
+  <si>
+    <t>Read for the second time and referred to committee 6/26/21</t>
   </si>
 </sst>
 </file>
@@ -1071,10 +1159,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1180,8 +1267,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}" name="a__________Prohibiting_healthcare_for_transgender_youth" displayName="a__________Prohibiting_healthcare_for_transgender_youth" ref="A1:C73" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C73" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}" name="a__________Prohibiting_healthcare_for_transgender_youth" displayName="a__________Prohibiting_healthcare_for_transgender_youth" ref="A1:C98" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C98" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CCE40006-08C5-455F-8DA0-68DBDBDA71C8}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{12F8E506-5ABC-4DAE-8DC8-0C7595662948}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="10"/>
@@ -1524,10 +1611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C823D797-831C-4828-9572-7CCBE044D14D}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,79 +1636,79 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>278</v>
+      <c r="B3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>278</v>
+      <c r="B4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>276</v>
+      <c r="A5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>283</v>
+      <c r="B6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>282</v>
+      <c r="B7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1630,714 +1717,978 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" t="s">
         <v>284</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>292</v>
+      </c>
+      <c r="C45" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B46" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>295</v>
+      </c>
+      <c r="C47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B50" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>301</v>
+      </c>
+      <c r="C52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B57" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B58" t="s">
+        <v>308</v>
+      </c>
+      <c r="C58" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>311</v>
+      </c>
+      <c r="C59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>312</v>
+      </c>
+      <c r="C62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>313</v>
+      </c>
+      <c r="C64" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="B65" t="s">
+        <v>316</v>
+      </c>
+      <c r="C65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" t="s">
+        <v>317</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" t="s">
+        <v>318</v>
+      </c>
+      <c r="C67" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" t="s">
+        <v>320</v>
+      </c>
+      <c r="C68" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" t="s">
+        <v>319</v>
+      </c>
+      <c r="C69" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B79" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" t="s">
+        <v>118</v>
+      </c>
+      <c r="C89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B92" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B93" t="s">
+        <v>126</v>
+      </c>
+      <c r="C93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B96" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="C96" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="1" t="s">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C97" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2375,366 +2726,366 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B27" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C27" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C29" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C30" t="s">
         <v>232</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C31" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C33" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
         <v>237</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2772,91 +3123,91 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>182</v>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>184</v>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>186</v>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>188</v>
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>190</v>
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>192</v>
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>194</v>
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2894,289 +3245,289 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>164</v>
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>167</v>
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C11" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B12" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B13" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B14" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C14" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>265</v>
+      <c r="B23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>267</v>
+      <c r="A24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>269</v>
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>271</v>
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>273</v>
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/miserableData.xlsx
+++ b/miserableData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvin\Documents\hateCrimeProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvi\Documents\cis3920Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702C01A4-F791-47EF-9603-6F66212462DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0221CF-E728-4ECE-A53E-2D947E5C0285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88E5D7C8-F0A7-40A7-A4FE-12C513C94A33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{88E5D7C8-F0A7-40A7-A4FE-12C513C94A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Anti LGBTQ Bills" sheetId="15" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="LGBTQ Equality" sheetId="22" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Anti LGBTQ Bills'!$A$1:$C$98</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Anti LGBTQ Bills'!$A$1:$C$107</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Bills Pre-Empting Protection'!$A$1:$C$9</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'LGBTQ Equality'!$A$1:$C$27</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Religious Exemption Bills'!$A$1:$C$34</definedName>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="341">
   <si>
     <t>Column1</t>
   </si>
@@ -397,19 +397,6 @@
     <t>Referred to committee 2/18/21</t>
   </si>
   <si>
-    <t>HB 61SB 132SB 187</t>
-  </si>
-  <si>
-    <t>Referred to committee 2/4/21Referred to committee 3/17/21Passed with amendments 6/24/21</t>
-  </si>
-  <si>
-    <t>SB 331SB 2</t>
-  </si>
-  <si>
-    <t>Read for the second time and referred to committee 2/2/21Passed in Senate 3/1/21; _x000D_
-Passed in House 4/20/21</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
@@ -419,12 +406,6 @@
     <t>Referred to committee 4/5/21</t>
   </si>
   <si>
-    <t>SB 531HB 4608</t>
-  </si>
-  <si>
-    <t>Referred to committee 2/9/21Prefiled and referred to committee 11/17/21</t>
-  </si>
-  <si>
     <t>SD</t>
   </si>
   <si>
@@ -438,20 +419,6 @@
   </si>
   <si>
     <t>Signed by Governor 3/26/21Signed by Governor 3/26/21</t>
-  </si>
-  <si>
-    <t>SB 29_x000D_
-SB 373HB 1458_x000D_
-HB 3455_x000D_
-HB 4042_x000D_
-HB 4043HB 90HB 10HB 25</t>
-  </si>
-  <si>
-    <t>Passed in Senate 4/15/21;_x000D_
-Read for the second time in House 5/25/21Read for the first time and referred to committee 3/9/21Read for the first time and referred to committee 3/5/21_x000D_
-Read for the first time and referred to committee 3/22/21_x000D_
-Left pending in committee 4/20/21_x000D_
-Read for the first time and referred to committee 3/29/21Filed 1st Special Session; died 8/6/21Filed 3rd Special Session; referred to comittee 9/27/21Signed by Governor 10/25/21</t>
   </si>
   <si>
     <t>HB 302HB 11</t>
@@ -1124,6 +1091,83 @@
   </si>
   <si>
     <t>Read for the second time and referred to committee 6/26/21</t>
+  </si>
+  <si>
+    <t>HB 61</t>
+  </si>
+  <si>
+    <t>SB 187</t>
+  </si>
+  <si>
+    <t>SB 132</t>
+  </si>
+  <si>
+    <t>Referred to committee 2/4/21</t>
+  </si>
+  <si>
+    <t>Passed with amendments 6/24/21</t>
+  </si>
+  <si>
+    <t>Referred to committee 3/17/21</t>
+  </si>
+  <si>
+    <t>SB 2</t>
+  </si>
+  <si>
+    <t>SB 331</t>
+  </si>
+  <si>
+    <t>Passed in House 4/20/21</t>
+  </si>
+  <si>
+    <t>Read for the second time and referred to committee 2/2/21Passed in Senate 3/1/21; </t>
+  </si>
+  <si>
+    <t>HB 4608</t>
+  </si>
+  <si>
+    <t>SB 531</t>
+  </si>
+  <si>
+    <t>Referred to committee 2/9/21</t>
+  </si>
+  <si>
+    <t>SB 29</t>
+  </si>
+  <si>
+    <t>SB 373</t>
+  </si>
+  <si>
+    <t>HB 1458</t>
+  </si>
+  <si>
+    <t>HB 3455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+HB 4043HB 90HB 10HB 25</t>
+  </si>
+  <si>
+    <t>HB 4042</t>
+  </si>
+  <si>
+    <t>Passed in Senate 4/15/21;</t>
+  </si>
+  <si>
+    <t>Read for the second time in House 5/25/21Read for the first time and referred to committee 3/9/21</t>
+  </si>
+  <si>
+    <t>Read for the first time and referred to committee 3/5/21</t>
+  </si>
+  <si>
+    <t>Read for the first time and referred to committee 3/22/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Read for the first time and referred to committee 3/29/21Filed 1st Special Session; died 8/6/21Filed 3rd Special Session; referred to comittee 9/27/21Signed by Governor 10/25/21</t>
+  </si>
+  <si>
+    <t>Left pending in committee 4/20/21</t>
   </si>
 </sst>
 </file>
@@ -1267,8 +1311,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}" name="a__________Prohibiting_healthcare_for_transgender_youth" displayName="a__________Prohibiting_healthcare_for_transgender_youth" ref="A1:C98" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C98" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}" name="a__________Prohibiting_healthcare_for_transgender_youth" displayName="a__________Prohibiting_healthcare_for_transgender_youth" ref="A1:C107" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C107" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CCE40006-08C5-455F-8DA0-68DBDBDA71C8}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{12F8E506-5ABC-4DAE-8DC8-0C7595662948}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="10"/>
@@ -1611,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C823D797-831C-4828-9572-7CCBE044D14D}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,10 +1695,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1662,21 +1706,21 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1684,10 +1728,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1695,10 +1739,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1717,10 +1761,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1728,10 +1772,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1783,10 +1827,10 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1794,10 +1838,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1805,10 +1849,10 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C17" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1816,10 +1860,10 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1882,10 +1926,10 @@
         <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C24" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1893,10 +1937,10 @@
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C25" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1926,10 +1970,10 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C28" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1937,10 +1981,10 @@
         <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C29" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1948,10 +1992,10 @@
         <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1981,10 +2025,10 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1992,10 +2036,10 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C34" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2003,10 +2047,10 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2014,10 +2058,10 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C36" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2025,10 +2069,10 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C37" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2036,10 +2080,10 @@
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C38" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2058,10 +2102,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2069,10 +2113,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2080,10 +2124,10 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C42" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2102,10 +2146,10 @@
         <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2113,10 +2157,10 @@
         <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C45" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,10 +2168,10 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2135,10 +2179,10 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C47" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2146,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C48" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2157,10 +2201,10 @@
         <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2168,10 +2212,10 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2179,10 +2223,10 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2190,10 +2234,10 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C52" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2234,10 +2278,10 @@
         <v>24</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2245,10 +2289,10 @@
         <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2256,10 +2300,10 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C58" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2267,10 +2311,10 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C59" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2300,10 +2344,10 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2311,10 +2355,10 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C63" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2322,10 +2366,10 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C64" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2333,7 +2377,7 @@
         <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C65" t="s">
         <v>88</v>
@@ -2344,7 +2388,7 @@
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C66" t="s">
         <v>88</v>
@@ -2355,10 +2399,10 @@
         <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C67" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2366,10 +2410,10 @@
         <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C68" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2377,10 +2421,10 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C69" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2454,241 +2498,337 @@
         <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>318</v>
       </c>
       <c r="C77" t="s">
-        <v>92</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>317</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>322</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>327</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>326</v>
       </c>
       <c r="C83" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B85" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>329</v>
       </c>
       <c r="C86" t="s">
-        <v>113</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>330</v>
       </c>
       <c r="C87" t="s">
-        <v>115</v>
+        <v>336</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>331</v>
       </c>
       <c r="C88" t="s">
-        <v>117</v>
+        <v>337</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>26</v>
-      </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>332</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>334</v>
       </c>
       <c r="C90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>42</v>
-      </c>
-      <c r="B91" t="s">
-        <v>122</v>
-      </c>
-      <c r="C91" t="s">
-        <v>123</v>
+        <v>48</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B94" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B95" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C96" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>42</v>
       </c>
-      <c r="B97" t="s">
-        <v>134</v>
-      </c>
-      <c r="C97" t="s">
-        <v>135</v>
+      <c r="B100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103" t="s">
+        <v>120</v>
+      </c>
+      <c r="C103" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2741,10 +2881,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2752,10 +2892,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2763,7 +2903,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -2774,10 +2914,10 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2785,21 +2925,21 @@
         <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2807,21 +2947,21 @@
         <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2829,10 +2969,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2840,10 +2980,10 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2851,7 +2991,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -2862,10 +3002,10 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2873,10 +3013,10 @@
         <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2884,21 +3024,21 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2906,10 +3046,10 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2917,10 +3057,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2928,10 +3068,10 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2939,7 +3079,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -2950,10 +3090,10 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C22" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2961,10 +3101,10 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2972,21 +3112,21 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C25" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2994,10 +3134,10 @@
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C26" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3005,10 +3145,10 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3016,10 +3156,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3027,10 +3167,10 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C29" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3038,10 +3178,10 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C30" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3049,10 +3189,10 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C31" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3060,7 +3200,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -3068,13 +3208,13 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C33" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3082,10 +3222,10 @@
         <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3138,10 +3278,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3149,10 +3289,10 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3160,10 +3300,10 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3171,10 +3311,10 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3182,10 +3322,10 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3193,21 +3333,21 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3257,24 +3397,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3282,10 +3422,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3293,10 +3433,10 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3304,21 +3444,21 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3326,10 +3466,10 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3337,10 +3477,10 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3348,43 +3488,43 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3392,10 +3532,10 @@
         <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3403,21 +3543,21 @@
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3425,10 +3565,10 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3436,21 +3576,21 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3458,21 +3598,21 @@
         <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3480,21 +3620,21 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3502,32 +3642,32 @@
         <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C25" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/miserableData.xlsx
+++ b/miserableData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvi\Documents\cis3920Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0221CF-E728-4ECE-A53E-2D947E5C0285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57E5097-7BC5-4124-9075-52E73C70EBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{88E5D7C8-F0A7-40A7-A4FE-12C513C94A33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{88E5D7C8-F0A7-40A7-A4FE-12C513C94A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Anti LGBTQ Bills" sheetId="15" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="LGBTQ Equality" sheetId="22" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Anti LGBTQ Bills'!$A$1:$C$107</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Bills Pre-Empting Protection'!$A$1:$C$9</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'LGBTQ Equality'!$A$1:$C$27</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Anti LGBTQ Bills'!$A$1:$C$122</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Bills Pre-Empting Protection'!$A$1:$C$14</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'LGBTQ Equality'!$A$1:$C$41</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Religious Exemption Bills'!$A$1:$C$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="393">
   <si>
     <t>Column1</t>
   </si>
@@ -256,24 +256,9 @@
     <t>SC</t>
   </si>
   <si>
-    <t>HB 3477_x000D_
-HB 4047</t>
-  </si>
-  <si>
-    <t>Read for the first time and referred to committee 1/12/21_x000D_
-Referred to committee 3/9/21</t>
-  </si>
-  <si>
     <t>TN</t>
   </si>
   <si>
-    <t>SB 657_x000D_
-HB 578</t>
-  </si>
-  <si>
-    <t>Referred to committee 2/11/21Deferred to 2022</t>
-  </si>
-  <si>
     <t>TX</t>
   </si>
   <si>
@@ -415,40 +400,9 @@
     <t>Veto override failed  3/29/21</t>
   </si>
   <si>
-    <t>HB 3SB 228</t>
-  </si>
-  <si>
-    <t>Signed by Governor 3/26/21Signed by Governor 3/26/21</t>
-  </si>
-  <si>
-    <t>HB 302HB 11</t>
-  </si>
-  <si>
-    <t>Died 3/5/21Prefiled 12/13/21</t>
-  </si>
-  <si>
     <t>WI</t>
   </si>
   <si>
-    <t>AB 195_x000D_
-AB 196SB 322SB 323</t>
-  </si>
-  <si>
-    <t>Read for the third time and passed in Assembly 6/16/21;_x000D_
-Read for the first time and referred to committee in Senate 6/21/21_x000D_
-Read for the third time and passed in Assembly 6/16/21;_x000D_
-Read for the first time and referred to committee in Senate 6/21/21_x000D_
-Public hearing held 5/26/21_x000D_
-Public hearing held 5/26/21</t>
-  </si>
-  <si>
-    <t>HB 2141HB 2676HB 2734HB 3293SB 341</t>
-  </si>
-  <si>
-    <t>Referred to committee 2/10/21Referred to committee 2/23/21Referred to committee 2/24/21Signed by Governor 4/28/21_x000D_
-Referred to committee 2/18/21</t>
-  </si>
-  <si>
     <t>LC 2997 /SB 280</t>
   </si>
   <si>
@@ -467,12 +421,6 @@
     <t>Prefiled 12/7/21</t>
   </si>
   <si>
-    <t>HB 1755HB 645</t>
-  </si>
-  <si>
-    <t>Prefiled 12/1/21Prefiled 12/1/21</t>
-  </si>
-  <si>
     <t>SB 1142</t>
   </si>
   <si>
@@ -497,12 +445,6 @@
     <t>Read for the second time 2/3/21</t>
   </si>
   <si>
-    <t>SF 167HF 272HF 326</t>
-  </si>
-  <si>
-    <t>Subcommittee recommends passage 2/16/21Introduced and referred to committee 1/27/21Introduced and referred to committee 2/2/21</t>
-  </si>
-  <si>
     <t>HB 336</t>
   </si>
   <si>
@@ -539,25 +481,9 @@
     <t>Referred to committee 1/25/21</t>
   </si>
   <si>
-    <t>HB 130HB 116</t>
-  </si>
-  <si>
-    <t>Died 4/2/21_x000D_
-Died 4/2/21</t>
-  </si>
-  <si>
     <t>HB 1760HB 1737</t>
   </si>
   <si>
-    <t>Prefiled 12/1/21Prefiled 12/21/21</t>
-  </si>
-  <si>
-    <t>SB 2089HB 806HB 807</t>
-  </si>
-  <si>
-    <t>Died in committee 2/2/21Died in committee 2/2/21Died in committee 2/2/21</t>
-  </si>
-  <si>
     <t>NE</t>
   </si>
   <si>
@@ -573,12 +499,6 @@
     <t>Referred to committee 1/12/21</t>
   </si>
   <si>
-    <t>SB 233HB 188HB 191</t>
-  </si>
-  <si>
-    <t>Read for the first time and referred to committee 3/3/21Read for the first time and referred to committee 2/25/21Placed on general state calendar 5/13/21</t>
-  </si>
-  <si>
     <t>SB 389</t>
   </si>
   <si>
@@ -597,30 +517,6 @@
     <t>Read for the first time and referred to committee 1/11/21</t>
   </si>
   <si>
-    <t>HB 786HB 1693</t>
-  </si>
-  <si>
-    <t>Referred to committee 3/4/21Prefiled 12/1/21</t>
-  </si>
-  <si>
-    <t>SB 615HB 1004</t>
-  </si>
-  <si>
-    <t>Read for the second time and referred to committee 2/2/21Second reading referred to commitee 2/13/21</t>
-  </si>
-  <si>
-    <t>SB 1208SB 1229HB 529</t>
-  </si>
-  <si>
-    <t>Passed on second consideration and referred to committee 2/22/21Signed by Governor 5/3/21Comparable Senate bill substituted 4/14/21</t>
-  </si>
-  <si>
-    <t>AB 14SB 31</t>
-  </si>
-  <si>
-    <t>Referred to committee 3/16/21Read the second time and referred to committee 3/16/21</t>
-  </si>
-  <si>
     <t>SB 1163</t>
   </si>
   <si>
@@ -628,14 +524,6 @@
   </si>
   <si>
     <t>CA</t>
-  </si>
-  <si>
-    <t>AB 218_x000D_
-AB 439</t>
-  </si>
-  <si>
-    <t>Enrolled and presented to the Governor 9/17/21_x000D_
-Approved by the Governor 7/9/21</t>
   </si>
   <si>
     <t>IL</t>
@@ -684,12 +572,6 @@
     <t>Referred for second reading 2/2/21</t>
   </si>
   <si>
-    <t>SB 210HB 338</t>
-  </si>
-  <si>
-    <t>Read for the first time and referred to committee 3/3/21Read for the first time and referred to committee 2/25/21</t>
-  </si>
-  <si>
     <t>SB 357</t>
   </si>
   <si>
@@ -700,12 +582,6 @@
   </si>
   <si>
     <t>Referred to committee 1/28/21</t>
-  </si>
-  <si>
-    <t>A 849S 3075S 2878</t>
-  </si>
-  <si>
-    <t>Referred to committee 1/6/21Referred to committee 1/27/21Referred to committee 1/26/21</t>
   </si>
   <si>
     <t>HJR 1024SJR 14</t>
@@ -839,14 +715,6 @@
     <t>Read for the first time 5/24/21</t>
   </si>
   <si>
-    <t>AB 1041AB 1094_x000D_
-SB 225SB 379</t>
-  </si>
-  <si>
-    <t>Ordered to inactive file 9/9/21Approved by the Governor on 9/16/21_x000D_
-Hearing canceled 4/5/21Hearing 5/20/21</t>
-  </si>
-  <si>
     <t>SB 618</t>
   </si>
   <si>
@@ -955,9 +823,6 @@
     <t>HB 1882</t>
   </si>
   <si>
-    <t>Readfor the second time and referred to committee 4/12/21</t>
-  </si>
-  <si>
     <t>HB 1905</t>
   </si>
   <si>
@@ -1144,10 +1009,6 @@
     <t>HB 3455</t>
   </si>
   <si>
-    <t xml:space="preserve">
-HB 4043HB 90HB 10HB 25</t>
-  </si>
-  <si>
     <t>HB 4042</t>
   </si>
   <si>
@@ -1163,11 +1024,290 @@
     <t>Read for the first time and referred to committee 3/22/21</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Read for the first time and referred to committee 3/29/21Filed 1st Special Session; died 8/6/21Filed 3rd Special Session; referred to comittee 9/27/21Signed by Governor 10/25/21</t>
-  </si>
-  <si>
     <t>Left pending in committee 4/20/21</t>
+  </si>
+  <si>
+    <t>HB 4043</t>
+  </si>
+  <si>
+    <t>Read for the first time and referred to committee 3/29/21</t>
+  </si>
+  <si>
+    <t>HB 90</t>
+  </si>
+  <si>
+    <t>HB 10</t>
+  </si>
+  <si>
+    <t>HB 25</t>
+  </si>
+  <si>
+    <t>Signed by Governor 10/25/21</t>
+  </si>
+  <si>
+    <t>Filed 3rd Special Session; referred to comittee 9/27/21</t>
+  </si>
+  <si>
+    <t>Filed 1st Special Session; died 8/6/21</t>
+  </si>
+  <si>
+    <t>HB 302</t>
+  </si>
+  <si>
+    <t>Prefiled 12/13/21</t>
+  </si>
+  <si>
+    <t>HB 11</t>
+  </si>
+  <si>
+    <t>HB 3477</t>
+  </si>
+  <si>
+    <t>Read for the first time and referred to committee 1/12/21</t>
+  </si>
+  <si>
+    <t>Referred to committee 3/9/21</t>
+  </si>
+  <si>
+    <t>HB 4047</t>
+  </si>
+  <si>
+    <t>SB 657</t>
+  </si>
+  <si>
+    <t>Deferred to 2022</t>
+  </si>
+  <si>
+    <t>Referred to committee 2/11/21</t>
+  </si>
+  <si>
+    <t>HB 578</t>
+  </si>
+  <si>
+    <t>Read for the second time and referred to committee 4/12/21</t>
+  </si>
+  <si>
+    <t>SB 228</t>
+  </si>
+  <si>
+    <t>HB 3</t>
+  </si>
+  <si>
+    <t>Signed by Governor 3/26/21</t>
+  </si>
+  <si>
+    <t>AB 195</t>
+  </si>
+  <si>
+    <t>AB 196</t>
+  </si>
+  <si>
+    <t>SB 322</t>
+  </si>
+  <si>
+    <t>Read for the third time and passed in Assembly 6/16/21;</t>
+  </si>
+  <si>
+    <t>Read for the first time and referred to committee in Senate 6/21/21</t>
+  </si>
+  <si>
+    <t>Public hearing held 5/26/21</t>
+  </si>
+  <si>
+    <t>HB 2141</t>
+  </si>
+  <si>
+    <t>HB 2676</t>
+  </si>
+  <si>
+    <t>Referred to committee 2/23/21</t>
+  </si>
+  <si>
+    <t>HB 2734</t>
+  </si>
+  <si>
+    <t>SB 341</t>
+  </si>
+  <si>
+    <t>HB 3293</t>
+  </si>
+  <si>
+    <t>Referred to committee 2/24/21</t>
+  </si>
+  <si>
+    <t>Signed by Governor 4/28/21</t>
+  </si>
+  <si>
+    <t>HB 1755</t>
+  </si>
+  <si>
+    <t>HB 645</t>
+  </si>
+  <si>
+    <t>SF 167</t>
+  </si>
+  <si>
+    <t>Sub committee recommends passage 2/16/21</t>
+  </si>
+  <si>
+    <t>Introduced and referred to committee 2/2/21</t>
+  </si>
+  <si>
+    <t>Introduced and referred to committee 1/27/21</t>
+  </si>
+  <si>
+    <t>HF 326</t>
+  </si>
+  <si>
+    <t>HF 272</t>
+  </si>
+  <si>
+    <t>HB 786</t>
+  </si>
+  <si>
+    <t>Referred to committee 3/4/21</t>
+  </si>
+  <si>
+    <t>HB 1693</t>
+  </si>
+  <si>
+    <t>SB 651</t>
+  </si>
+  <si>
+    <t>Second reading referred to commitee 2/13/21</t>
+  </si>
+  <si>
+    <t>HB 1004</t>
+  </si>
+  <si>
+    <t>SB 1208</t>
+  </si>
+  <si>
+    <t>Passed on second consideration and referred to committee 2/22/21</t>
+  </si>
+  <si>
+    <t>SB 1229</t>
+  </si>
+  <si>
+    <t>Signed by Governor 5/3/21</t>
+  </si>
+  <si>
+    <t>Comparable Senate bill substituted 4/14/21</t>
+  </si>
+  <si>
+    <t>HB 529</t>
+  </si>
+  <si>
+    <t>AB 14</t>
+  </si>
+  <si>
+    <t>Referred to committee 3/16/21</t>
+  </si>
+  <si>
+    <t>Read the second time and referred to committee 3/16/21</t>
+  </si>
+  <si>
+    <t>SB 31</t>
+  </si>
+  <si>
+    <t>HB 116</t>
+  </si>
+  <si>
+    <t>HB 130</t>
+  </si>
+  <si>
+    <t>HB 1760</t>
+  </si>
+  <si>
+    <t>Prefiled 12/21/21</t>
+  </si>
+  <si>
+    <t>HB 806</t>
+  </si>
+  <si>
+    <t>SB 2089</t>
+  </si>
+  <si>
+    <t>HB 807</t>
+  </si>
+  <si>
+    <t>SB 233</t>
+  </si>
+  <si>
+    <t>Read for the first time and referred to committee 3/3/21</t>
+  </si>
+  <si>
+    <t>Placed on general state calendar 5/13/21</t>
+  </si>
+  <si>
+    <t>Read for the first time and referred to committee 2/25/21</t>
+  </si>
+  <si>
+    <t>HB 191</t>
+  </si>
+  <si>
+    <t>HB 188</t>
+  </si>
+  <si>
+    <t>AB 218</t>
+  </si>
+  <si>
+    <t>Enrolled and presented to the Governor 9/17/21</t>
+  </si>
+  <si>
+    <t>AB 439</t>
+  </si>
+  <si>
+    <t>Approved by the Governor 7/9/21</t>
+  </si>
+  <si>
+    <t>SB 210</t>
+  </si>
+  <si>
+    <t>HB 338</t>
+  </si>
+  <si>
+    <t>S 2878</t>
+  </si>
+  <si>
+    <t>A 849</t>
+  </si>
+  <si>
+    <t>S 3075</t>
+  </si>
+  <si>
+    <t>Referred to committee 1/26/21</t>
+  </si>
+  <si>
+    <t>Referred to committee 1/6/21</t>
+  </si>
+  <si>
+    <t>Referred to committee 1/27/21</t>
+  </si>
+  <si>
+    <t>SB 379</t>
+  </si>
+  <si>
+    <t>SB 225</t>
+  </si>
+  <si>
+    <t>AB 1094</t>
+  </si>
+  <si>
+    <t>Hearing 5/20/21</t>
+  </si>
+  <si>
+    <t>Hearing canceled 4/5/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordered to inactive file 9/9/21
+</t>
+  </si>
+  <si>
+    <t>Approved by the Governor on 9/16/21</t>
+  </si>
+  <si>
+    <t>AB 1041</t>
   </si>
 </sst>
 </file>
@@ -1311,12 +1451,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}" name="a__________Prohibiting_healthcare_for_transgender_youth" displayName="a__________Prohibiting_healthcare_for_transgender_youth" ref="A1:C107" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C107" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}" name="a__________Prohibiting_healthcare_for_transgender_youth" displayName="a__________Prohibiting_healthcare_for_transgender_youth" ref="A1:C122" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C122" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CCE40006-08C5-455F-8DA0-68DBDBDA71C8}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{12F8E506-5ABC-4DAE-8DC8-0C7595662948}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{5F1E18FE-CE08-4BA2-8CF7-A0E98590A654}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{CCE40006-08C5-455F-8DA0-68DBDBDA71C8}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{12F8E506-5ABC-4DAE-8DC8-0C7595662948}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{5F1E18FE-CE08-4BA2-8CF7-A0E98590A654}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1335,24 +1475,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{870EDE00-56AD-4E30-ABAE-A0EB95064520}" name="Other_Anti_LGBTQ_Bills__2" displayName="Other_Anti_LGBTQ_Bills__2" ref="A1:C9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C9" xr:uid="{870EDE00-56AD-4E30-ABAE-A0EB95064520}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{870EDE00-56AD-4E30-ABAE-A0EB95064520}" name="Other_Anti_LGBTQ_Bills__2" displayName="Other_Anti_LGBTQ_Bills__2" ref="A1:C14" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C14" xr:uid="{870EDE00-56AD-4E30-ABAE-A0EB95064520}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3383346D-3BFE-443C-8365-0E782E7E0C67}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{85B958ED-E918-413E-803A-8F423B00C9F0}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{64C201D8-81A3-4623-9901-BE1D7BF2388A}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{3383346D-3BFE-443C-8365-0E782E7E0C67}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{85B958ED-E918-413E-803A-8F423B00C9F0}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{64C201D8-81A3-4623-9901-BE1D7BF2388A}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{82BA0024-DB43-4817-996C-13C2E492006C}" name="LGBTQ_Equality_Bills__522" displayName="LGBTQ_Equality_Bills__522" ref="A1:C27" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C27" xr:uid="{82BA0024-DB43-4817-996C-13C2E492006C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{82BA0024-DB43-4817-996C-13C2E492006C}" name="LGBTQ_Equality_Bills__522" displayName="LGBTQ_Equality_Bills__522" ref="A1:C41" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C41" xr:uid="{82BA0024-DB43-4817-996C-13C2E492006C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BE622ACF-A67A-4607-B36A-0CA21049E099}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{147119ED-C419-4B04-B42B-5496902E990F}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{458A07B4-90A9-4AFC-8BFB-A0A95BDD320D}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BE622ACF-A67A-4607-B36A-0CA21049E099}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{147119ED-C419-4B04-B42B-5496902E990F}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{458A07B4-90A9-4AFC-8BFB-A0A95BDD320D}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1655,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C823D797-831C-4828-9572-7CCBE044D14D}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,57 +1810,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" t="s">
-        <v>244</v>
+      <c r="B3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1728,32 +1868,32 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>248</v>
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1761,65 +1901,65 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1827,98 +1967,98 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" t="s">
-        <v>257</v>
+      <c r="B17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>259</v>
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1926,109 +2066,109 @@
         <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
+      <c r="B26" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>263</v>
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="C28" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="C29" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>267</v>
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>269</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2036,76 +2176,76 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="C34" t="s">
-        <v>270</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C35" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="C36" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>279</v>
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>280</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2113,10 +2253,10 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2124,54 +2264,54 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="C42" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>285</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2179,10 +2319,10 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="C47" t="s">
-        <v>288</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2190,32 +2330,32 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="C48" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>290</v>
+      <c r="B49" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2223,87 +2363,87 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="B52" t="s">
-        <v>293</v>
-      </c>
-      <c r="C52" t="s">
-        <v>296</v>
+      <c r="B52" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>123</v>
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>24</v>
       </c>
-      <c r="B57" t="s">
-        <v>299</v>
-      </c>
-      <c r="C57" t="s">
-        <v>123</v>
+      <c r="B57" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="C58" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2311,76 +2451,76 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C59" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>304</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="C64" t="s">
-        <v>307</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2388,10 +2528,10 @@
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2399,10 +2539,10 @@
         <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="C67" t="s">
-        <v>313</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2410,10 +2550,10 @@
         <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="C68" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2421,87 +2561,87 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="C69" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>271</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>319</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2509,10 +2649,10 @@
         <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="C77" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2520,21 +2660,21 @@
         <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="C78" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B79" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="C79" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2542,32 +2682,32 @@
         <v>41</v>
       </c>
       <c r="B80" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="C80" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>282</v>
       </c>
       <c r="C81" t="s">
-        <v>91</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>327</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>328</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2575,260 +2715,439 @@
         <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="C83" t="s">
-        <v>127</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>286</v>
       </c>
       <c r="C84" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B86" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C86" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B87" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C87" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="C88" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
       <c r="B89" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="C89" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B90" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="C90" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>339</v>
+        <v>44</v>
+      </c>
+      <c r="B91" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>293</v>
       </c>
       <c r="C92" t="s">
-        <v>98</v>
+        <v>298</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>301</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="C95" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>303</v>
       </c>
       <c r="C96" t="s">
-        <v>107</v>
+        <v>304</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>307</v>
       </c>
       <c r="C97" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>309</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B99" t="s">
-        <v>112</v>
+        <v>322</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>326</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>323</v>
       </c>
       <c r="C100" t="s">
-        <v>115</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>324</v>
       </c>
       <c r="C101" t="s">
-        <v>117</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="B102" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="C102" t="s">
-        <v>119</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>15</v>
-      </c>
-      <c r="B103" t="s">
-        <v>120</v>
-      </c>
-      <c r="C103" t="s">
-        <v>121</v>
+        <v>48</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" t="s">
-        <v>122</v>
-      </c>
-      <c r="C104" t="s">
-        <v>123</v>
+        <v>48</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>77</v>
-      </c>
-      <c r="B105" t="s">
-        <v>124</v>
-      </c>
-      <c r="C105" t="s">
-        <v>125</v>
+        <v>48</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>32</v>
+      </c>
+      <c r="B108" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>96</v>
+      </c>
+      <c r="C110" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" t="s">
+        <v>336</v>
+      </c>
+      <c r="C111" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" t="s">
+        <v>337</v>
+      </c>
+      <c r="C112" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>42</v>
       </c>
-      <c r="B106" t="s">
-        <v>126</v>
-      </c>
-      <c r="C106" t="s">
-        <v>127</v>
+      <c r="B114" t="s">
+        <v>100</v>
+      </c>
+      <c r="C114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>102</v>
+      </c>
+      <c r="C115" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" t="s">
+        <v>338</v>
+      </c>
+      <c r="C117" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>343</v>
+      </c>
+      <c r="C118" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>15</v>
+      </c>
+      <c r="B119" t="s">
+        <v>342</v>
+      </c>
+      <c r="C119" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>24</v>
+      </c>
+      <c r="B120" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>73</v>
+      </c>
+      <c r="B121" t="s">
+        <v>108</v>
+      </c>
+      <c r="C121" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>42</v>
+      </c>
+      <c r="B122" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2844,7 +3163,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="A1:XFD1048576"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,10 +3200,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2892,10 +3211,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2903,7 +3222,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -2914,54 +3233,54 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2969,10 +3288,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2980,10 +3299,10 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2991,7 +3310,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -3002,21 +3321,21 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3024,32 +3343,32 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3057,10 +3376,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3068,10 +3387,10 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3079,7 +3398,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -3090,21 +3409,21 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3112,32 +3431,32 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="C26" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3145,10 +3464,10 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3156,10 +3475,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3167,21 +3486,21 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="C30" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3189,10 +3508,10 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3200,7 +3519,7 @@
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -3208,24 +3527,24 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="C33" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3238,10 +3557,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1895E69D-A26C-4278-8D8E-860ACC690BBE}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="A1:XFD1048576"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,35 +3572,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3289,21 +3608,21 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>344</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3311,10 +3630,10 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>346</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3322,32 +3641,76 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>347</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>349</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>350</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3360,10 +3723,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06495654-2788-4A10-982F-A414155B7B4B}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3375,46 +3738,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>361</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3422,10 +3785,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3433,241 +3796,381 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>362</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>365</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>364</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>366</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>372</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>371</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>373</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>375</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
-        <v>183</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>377</v>
       </c>
       <c r="C25" t="s">
-        <v>235</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" t="s">
-        <v>237</v>
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>238</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>239</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>381</v>
+      </c>
+      <c r="C30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>379</v>
+      </c>
+      <c r="C31" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>386</v>
+      </c>
+      <c r="C36" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>385</v>
+      </c>
+      <c r="C37" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/miserableData.xlsx
+++ b/miserableData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvi\Documents\cis3920Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvin\Documents\hateCrimeProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57E5097-7BC5-4124-9075-52E73C70EBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEED852F-DB7A-4AB6-961F-E27AD3E5CCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{88E5D7C8-F0A7-40A7-A4FE-12C513C94A33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{88E5D7C8-F0A7-40A7-A4FE-12C513C94A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Anti LGBTQ Bills" sheetId="15" r:id="rId1"/>
@@ -20,9 +20,9 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Anti LGBTQ Bills'!$A$1:$C$122</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Bills Pre-Empting Protection'!$A$1:$C$14</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'LGBTQ Equality'!$A$1:$C$41</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Religious Exemption Bills'!$A$1:$C$34</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Bills Pre-Empting Protection'!$A$1:$C$13</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'LGBTQ Equality'!$A$1:$C$39</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Religious Exemption Bills'!$A$1:$C$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -125,16 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="393">
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="395">
   <si>
     <t>State</t>
   </si>
@@ -479,9 +470,6 @@
   </si>
   <si>
     <t>Referred to committee 1/25/21</t>
-  </si>
-  <si>
-    <t>HB 1760HB 1737</t>
   </si>
   <si>
     <t>NE</t>
@@ -584,18 +572,6 @@
     <t>Referred to committee 1/28/21</t>
   </si>
   <si>
-    <t>HJR 1024SJR 14</t>
-  </si>
-  <si>
-    <t>Died 10/15/21Reviewed by Governor 4/30/21</t>
-  </si>
-  <si>
-    <t>HF 170SF 436</t>
-  </si>
-  <si>
-    <t>Introduced 1/22/21Subcommittee recommends passage 3/2/21</t>
-  </si>
-  <si>
     <t>HB 1503</t>
   </si>
   <si>
@@ -666,12 +642,6 @@
     <t>Committee vote failed 2/24/21</t>
   </si>
   <si>
-    <t>HB 1424SB 1674SB17</t>
-  </si>
-  <si>
-    <t>Placed on general sate calendar 5/13/21Read for the first time and referred to committee 3/24/21Introduced 1st Special Session 7/7/21</t>
-  </si>
-  <si>
     <t>HF 170</t>
   </si>
   <si>
@@ -1300,14 +1270,49 @@
     <t>Hearing canceled 4/5/21</t>
   </si>
   <si>
-    <t xml:space="preserve">Ordered to inactive file 9/9/21
-</t>
-  </si>
-  <si>
     <t>Approved by the Governor on 9/16/21</t>
   </si>
   <si>
     <t>AB 1041</t>
+  </si>
+  <si>
+    <t>Ordered to inactive file 9/9/21</t>
+  </si>
+  <si>
+    <t>HB 1737</t>
+  </si>
+  <si>
+    <t>SJR 14</t>
+  </si>
+  <si>
+    <t>HJR 1024</t>
+  </si>
+  <si>
+    <t>Reviewed by Governor 4/30/21</t>
+  </si>
+  <si>
+    <t>SF 436</t>
+  </si>
+  <si>
+    <t>Subcommittee recommends passage 3/2/21</t>
+  </si>
+  <si>
+    <t>SB17</t>
+  </si>
+  <si>
+    <t>HB 1424</t>
+  </si>
+  <si>
+    <t>SB 1674</t>
+  </si>
+  <si>
+    <t>Introduced 1st Special Session 7/7/21</t>
+  </si>
+  <si>
+    <t>Placed on general sate calendar 5/13/21</t>
+  </si>
+  <si>
+    <t>Read for the first time and referred to committee 3/24/21</t>
   </si>
 </sst>
 </file>
@@ -1463,20 +1468,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F48F93A2-E90A-4031-A502-DBC196E254DA}" name="a____Religious_Freedom_Restoration_Acts__RFRAs" displayName="a____Religious_Freedom_Restoration_Acts__RFRAs" ref="A1:C34" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C34" xr:uid="{F48F93A2-E90A-4031-A502-DBC196E254DA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F48F93A2-E90A-4031-A502-DBC196E254DA}" name="a____Religious_Freedom_Restoration_Acts__RFRAs" displayName="a____Religious_Freedom_Restoration_Acts__RFRAs" ref="A1:C39" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C39" xr:uid="{F48F93A2-E90A-4031-A502-DBC196E254DA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EA1AF20A-5CD6-48D7-BE37-2647D3B13748}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{360853BE-AEE0-4B63-BC63-C99A80B6AEB5}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{05BEA230-E3D0-48AE-BE4E-A7BF26FCFF1F}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{EA1AF20A-5CD6-48D7-BE37-2647D3B13748}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{360853BE-AEE0-4B63-BC63-C99A80B6AEB5}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{05BEA230-E3D0-48AE-BE4E-A7BF26FCFF1F}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{870EDE00-56AD-4E30-ABAE-A0EB95064520}" name="Other_Anti_LGBTQ_Bills__2" displayName="Other_Anti_LGBTQ_Bills__2" ref="A1:C14" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C14" xr:uid="{870EDE00-56AD-4E30-ABAE-A0EB95064520}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{870EDE00-56AD-4E30-ABAE-A0EB95064520}" name="Other_Anti_LGBTQ_Bills__2" displayName="Other_Anti_LGBTQ_Bills__2" ref="A1:C13" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C13" xr:uid="{870EDE00-56AD-4E30-ABAE-A0EB95064520}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3383346D-3BFE-443C-8365-0E782E7E0C67}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{85B958ED-E918-413E-803A-8F423B00C9F0}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="4"/>
@@ -1487,8 +1492,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{82BA0024-DB43-4817-996C-13C2E492006C}" name="LGBTQ_Equality_Bills__522" displayName="LGBTQ_Equality_Bills__522" ref="A1:C41" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C41" xr:uid="{82BA0024-DB43-4817-996C-13C2E492006C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{82BA0024-DB43-4817-996C-13C2E492006C}" name="LGBTQ_Equality_Bills__522" displayName="LGBTQ_Equality_Bills__522" ref="A1:C39" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C39" xr:uid="{82BA0024-DB43-4817-996C-13C2E492006C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BE622ACF-A67A-4607-B36A-0CA21049E099}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{147119ED-C419-4B04-B42B-5496902E990F}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="1"/>
@@ -1810,1344 +1815,1344 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C24" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C25" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C28" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C35" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C36" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C37" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C38" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C39" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C43" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C46" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C47" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C48" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C49" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C53" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C60" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C65" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C68" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C69" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C70" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C77" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C78" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B79" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C79" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B80" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C80" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B81" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C81" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C83" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C86" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C87" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C88" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C89" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C90" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B91" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C91" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B92" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C92" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B93" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C93" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B94" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C94" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B95" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C95" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B96" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C96" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B97" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C97" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B98" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C98" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C99" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B100" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C100" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B101" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C101" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B102" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C102" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B108" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C108" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B109" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C109" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C110" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B111" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C111" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C112" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B113" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C113" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B114" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C114" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C116" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C117" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C118" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C119" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B120" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C120" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B121" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C121" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C122" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3160,10 +3165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B2B72-99ED-4BED-84A3-4A14F8520817}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3186,365 +3191,420 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>385</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>387</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>390</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>391</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>389</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>390</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>391</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>389</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3560,7 +3620,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3572,145 +3632,145 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C8" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C10" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C11" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C12" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C13" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3723,10 +3783,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06495654-2788-4A10-982F-A414155B7B4B}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3738,439 +3798,431 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>383</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C13" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C15" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C17" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C18" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C25" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C29" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C30" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B31" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C31" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C32" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="C33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>390</v>
+        <v>128</v>
+      </c>
+      <c r="B34" t="s">
+        <v>377</v>
+      </c>
+      <c r="C34" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C35" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C36" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>385</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>388</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" t="s">
-        <v>199</v>
-      </c>
-      <c r="C40" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
